--- a/excels/数据文件_001.xlsx
+++ b/excels/数据文件_001.xlsx
@@ -417,7 +417,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,13 +436,6 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -898,148 +891,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,7 +1396,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1475,7 +1468,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>46019.0159259259</v>
+        <v>46020.0159259259</v>
       </c>
     </row>
   </sheetData>
